--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1847.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1847.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6600877381184279</v>
+        <v>1.350872874259949</v>
       </c>
       <c r="B1">
-        <v>0.7179178367180478</v>
+        <v>2.87433934211731</v>
       </c>
       <c r="C1">
-        <v>0.8403269036569863</v>
+        <v>3.983532190322876</v>
       </c>
       <c r="D1">
-        <v>1.420939122769455</v>
+        <v>3.239475250244141</v>
       </c>
       <c r="E1">
-        <v>3.149076994814372</v>
+        <v>0.7739195227622986</v>
       </c>
     </row>
   </sheetData>
